--- a/Week 49/Shareena.xlsx
+++ b/Week 49/Shareena.xlsx
@@ -335,6 +335,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -353,23 +370,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -1674,7 +1674,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1856,9 +1855,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1925,7 +1922,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2028,7 +2024,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2183,9 +2178,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2240,7 +2233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5577,35 +5569,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A12:C16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A12:C16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer" dataDxfId="13"/>
-    <tableColumn id="2" name="No of Times" dataDxfId="12"/>
-    <tableColumn id="3" name="Time" dataDxfId="11"/>
+    <tableColumn id="1" name="Customer" dataDxfId="11"/>
+    <tableColumn id="2" name="No of Times" dataDxfId="10"/>
+    <tableColumn id="3" name="Time" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A18:C21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A18:C21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A18:C21"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="No of Times" dataDxfId="7"/>
-    <tableColumn id="1" name="Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" name="No of Times" dataDxfId="5"/>
+    <tableColumn id="1" name="Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A42:B44" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A42:B44" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A42:B44"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Work" dataDxfId="3"/>
-    <tableColumn id="1" name="Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Work" dataDxfId="1"/>
+    <tableColumn id="1" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6225,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6338,7 +6330,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>

--- a/Week 49/Shareena.xlsx
+++ b/Week 49/Shareena.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Customer</t>
   </si>
@@ -133,12 +133,18 @@
   <si>
     <t>Printing</t>
   </si>
+  <si>
+    <t>Unable to locate Mysql Server</t>
+  </si>
+  <si>
+    <t>Could not start application</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +203,11 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -267,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,6 +1686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1855,12 +1868,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$13:$A$16</c:f>
+              <c:f>Sheet2!$A$15:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1880,7 +1895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$13:$C$16</c:f>
+              <c:f>Sheet2!$C$15:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1888,7 +1903,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>180</c:v>
@@ -1922,6 +1937,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2024,6 +2040,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2063,7 +2080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$42</c:f>
+              <c:f>Sheet2!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2178,12 +2195,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$43:$A$44</c:f>
+              <c:f>Sheet2!$A$46:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2197,7 +2216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$43:$B$44</c:f>
+              <c:f>Sheet2!$B$46:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2233,6 +2252,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5474,13 +5494,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1285874</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5504,13 +5524,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1443037</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5569,8 +5589,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A12:C16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A12:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A14:C18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A14:C18"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Customer" dataDxfId="11"/>
     <tableColumn id="2" name="No of Times" dataDxfId="10"/>
@@ -5581,8 +5601,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A18:C21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A18:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A20:C24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A20:C24"/>
   <tableColumns count="3">
     <tableColumn id="2" name="Category" dataDxfId="6"/>
     <tableColumn id="3" name="No of Times" dataDxfId="5"/>
@@ -5593,8 +5613,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A42:B44" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A42:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A45:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A45:B47"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Work" dataDxfId="1"/>
     <tableColumn id="1" name="Time" dataDxfId="0"/>
@@ -6215,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6339,126 +6359,157 @@
         <v>38</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5">
+        <v>43324</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>240</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B46" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B47" s="2">
         <v>23</v>
       </c>
     </row>
